--- a/references.xlsx
+++ b/references.xlsx
@@ -506,7 +506,11 @@
           <t>Atlanta Hawks</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>69200</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
@@ -514,7 +518,11 @@
         <v>1589977</v>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>UCpfcwELvR1wtcRJ0UxNXHYw</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -535,7 +543,11 @@
           <t>Boston Celtics</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161000</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
@@ -543,7 +555,11 @@
         <v>4188551</v>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>UCMfT9dr6xC_RIWoA9hI0meQ</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -564,7 +580,11 @@
           <t>Charlotte Hornets</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>25200</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
@@ -572,7 +592,11 @@
         <v>1216677</v>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>UCPhFI5lIFnSggz7HgY9UuuQ</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -593,7 +617,11 @@
           <t>Chicago Bulls</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>297000</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
@@ -601,7 +629,11 @@
         <v>4730441</v>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>UCvZi1jVVZ2yq0k5kkjzmuGw</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -622,7 +654,11 @@
           <t>Cleveland Cavaliers</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>47600</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
@@ -630,7 +666,11 @@
         <v>3323826</v>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>UCOdS-I1sYkKWhtTjMUWP_TA</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -651,7 +691,11 @@
           <t>Dallas Mavericks</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>138000</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -659,7 +703,11 @@
         <v>2275382</v>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>UCZywaCS_y9YOSSAC9z3dIeg</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -680,7 +728,11 @@
           <t>Denver Nuggets</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>95900</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
@@ -688,7 +740,11 @@
         <v>1457558</v>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>UCl8hzdP5wVlhuzNG3WCJa1w</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -709,7 +765,11 @@
           <t>Detroit Pistons</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>60100</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
@@ -717,7 +777,11 @@
         <v>1134855</v>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>UCtcSBo9EzOtXHxiPhU6RN8A</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -738,7 +802,11 @@
           <t>Golden State Warriors</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1920000</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -746,7 +814,11 @@
         <v>8505801</v>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>UCeYc_OjHs3QNxIjti2whKzg</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -767,7 +839,11 @@
           <t>Houston Rockets</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>112000</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
@@ -775,7 +851,11 @@
         <v>3245884</v>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>UCVD7l69MVGFq_wzQvbk9HbQ</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -796,7 +876,11 @@
           <t>Indiana Pacers</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>41200</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
@@ -804,7 +888,11 @@
         <v>1459421</v>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>UCUQDCnAwU-35cOo8WCzg6zA</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -825,7 +913,11 @@
           <t>Los Angeles Clippers</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>189000</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -833,7 +925,11 @@
         <v>2044684</v>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>UCoK6pw3iIVF9WAWnQd3hj-g</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -854,7 +950,11 @@
           <t>Los Angeles Lakers</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>641000</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
@@ -862,7 +962,11 @@
         <v>12024665</v>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>UC8CSt-oVqy8pUAoKSApTxQw</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -883,7 +987,11 @@
           <t>Memphis Grizzlies</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>82900</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -891,7 +999,11 @@
         <v>1633963</v>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>UCCK5EpWKYrAmILfaZThCV-Q</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -912,7 +1024,11 @@
           <t>Miami Heat</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>144000</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -920,7 +1036,11 @@
         <v>5063774</v>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>UC8bZbiKoPNRi3taABIaFeBw</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -941,7 +1061,11 @@
           <t>Milwaukee Bucks</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>445000</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
@@ -949,7 +1073,11 @@
         <v>2039185</v>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>UCRZDEVva3Z8h_Q0VetTgDUA</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -970,7 +1098,11 @@
           <t>Minnesota Timberwolves</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>62800</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -978,7 +1110,11 @@
         <v>1265149</v>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>UCXWDN5NKVFgnPt25CMh98Cg</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -999,7 +1135,11 @@
           <t>Brooklyn Nets</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>122000</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -1007,7 +1147,11 @@
         <v>2041362</v>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>UCTenKHt0h3VjdMvRWP6Lbvw</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1028,7 +1172,11 @@
           <t>New Orleans Pelicans</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>145000</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
@@ -1036,7 +1184,11 @@
         <v>1373975</v>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>UCHvG7tf62PwI04ZRfoptRSw</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1057,7 +1209,11 @@
           <t>New York Knicks</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>99500</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
@@ -1065,7 +1221,11 @@
         <v>2474774</v>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>UC0hb8f0OXHEzDrJDUq-YVVw</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1086,7 +1246,11 @@
           <t>Oklahoma City Thunder</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>114000</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -1094,7 +1258,11 @@
         <v>2809119</v>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>UCpXdQhy6kb5CTD8hKlmOL3w</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1115,7 +1283,11 @@
           <t>Orlando Magic</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>246000</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
@@ -1123,7 +1295,11 @@
         <v>1645247</v>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>UCxHFH-yfbhUrsWY4prPx3oQ</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1144,7 +1320,11 @@
           <t>Philadelphia 76ers</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>67700</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -1152,7 +1332,11 @@
         <v>2350900</v>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>UC5qJUyng_ezl0TVjVJFqtfQ</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1173,7 +1357,11 @@
           <t>Phoenix Suns</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>70700</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -1181,7 +1369,11 @@
         <v>1775350</v>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>UCLxlWVVHz2a8SdCfxzVXzQw</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1202,7 +1394,11 @@
           <t>Portland Trail Blazers</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>106000</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -1210,7 +1406,11 @@
         <v>1559476</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>UCXk66yyzXo7-2M1BMqLhltQ</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1231,7 +1431,11 @@
           <t>Sacramento Kings</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>312000</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -1239,7 +1443,11 @@
         <v>1268176</v>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>UCSgFigczGdNMilV1K23JgUQ</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1260,8 +1468,10 @@
           <t>San Antonio Spurs</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>99000</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>99100</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v>5100000</v>
@@ -1278,7 +1488,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.youtube.com/channel/UCEZHE-0CoHqeL1LGFa2EmQw</t>
+          <t>UCEZHE-0CoHqeL1LGFa2EmQw</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1313,7 +1523,11 @@
           <t>Toronto Raptors</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161000</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
@@ -1321,7 +1535,11 @@
         <v>2588741</v>
       </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>UCYBFE432C2AmNRDGEXE4uVg</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1342,7 +1560,11 @@
           <t>Utah Jazz</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>145000</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
@@ -1350,7 +1572,11 @@
         <v>1289833</v>
       </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>UCv9iSdeI9IzWfV8yTDsMYWA</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1371,7 +1597,11 @@
           <t>Washington Wizards</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>56300</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
@@ -1379,7 +1609,11 @@
         <v>1265691</v>
       </c>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>UChvzoBPvORuNGtHTMzjUsIQ</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>

--- a/references.xlsx
+++ b/references.xlsx
@@ -506,14 +506,18 @@
           <t>Atlanta Hawks</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>69200</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>69200</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2618741</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1100000</v>
+      </c>
       <c r="F2" t="n">
         <v>1589977</v>
       </c>
@@ -523,9 +527,21 @@
           <t>UCpfcwELvR1wtcRJ0UxNXHYw</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>atlhawks</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/atlhawks</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@atlhawks</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>https://twitter.com/ATLHawks</t>
@@ -543,14 +559,18 @@
           <t>Boston Celtics</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>161000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7873795</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8700000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1600000</v>
+      </c>
       <c r="F3" t="n">
         <v>4188551</v>
       </c>
@@ -560,9 +580,21 @@
           <t>UCMfT9dr6xC_RIWoA9hI0meQ</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>celtics</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/bostonceltics</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@celtics</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>https://twitter.com/celtics</t>
@@ -580,14 +612,18 @@
           <t>Charlotte Hornets</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>25200</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>25200</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2411578</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1400000</v>
+      </c>
       <c r="F4" t="n">
         <v>1216677</v>
       </c>
@@ -597,9 +633,21 @@
           <t>UCPhFI5lIFnSggz7HgY9UuuQ</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>hornets</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/hornets</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@hornets</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>https://twitter.com/hornets</t>
@@ -617,14 +665,18 @@
           <t>Chicago Bulls</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>297000</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>297000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10191682</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2500000</v>
+      </c>
       <c r="F5" t="n">
         <v>4730441</v>
       </c>
@@ -634,9 +686,21 @@
           <t>UCvZi1jVVZ2yq0k5kkjzmuGw</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>chicagobulls</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/chicagobulls</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@chicagobulls</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
           <t>https://twitter.com/chicagobulls</t>
@@ -654,14 +718,18 @@
           <t>Cleveland Cavaliers</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>47600</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>47600</v>
+      </c>
+      <c r="C6" t="n">
+        <v>16649892</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7700000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>713000</v>
+      </c>
       <c r="F6" t="n">
         <v>3323826</v>
       </c>
@@ -671,9 +739,21 @@
           <t>UCOdS-I1sYkKWhtTjMUWP_TA</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>cavs</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Cavs</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@cavs</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr">
         <is>
           <t>https://twitter.com/cavs</t>
@@ -691,14 +771,18 @@
           <t>Dallas Mavericks</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>138000</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>138000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3944609</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4400000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2000000</v>
+      </c>
       <c r="F7" t="n">
         <v>2275382</v>
       </c>
@@ -708,9 +792,21 @@
           <t>UCZywaCS_y9YOSSAC9z3dIeg</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>dallasmavs</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/dallasmavs</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@dallasmavs</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
           <t>https://twitter.com/dallasmavs</t>
@@ -728,14 +824,18 @@
           <t>Denver Nuggets</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>95900</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>95900</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2672673</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>981800</v>
+      </c>
       <c r="F8" t="n">
         <v>1457558</v>
       </c>
@@ -745,9 +845,21 @@
           <t>UCl8hzdP5wVlhuzNG3WCJa1w</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>nuggets</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/DenverNuggets</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nuggets</t>
+        </is>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>https://twitter.com/nuggets</t>
@@ -765,14 +877,18 @@
           <t>Detroit Pistons</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>60100</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>60100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1590751</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>469600</v>
+      </c>
       <c r="F9" t="n">
         <v>1134855</v>
       </c>
@@ -782,9 +898,21 @@
           <t>UCtcSBo9EzOtXHxiPhU6RN8A</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>detroitpistons</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/detroitpistons</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@detroitpistons</t>
+        </is>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>https://twitter.com/DetroitPistons</t>
@@ -802,14 +930,18 @@
           <t>Golden State Warriors</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1920000</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>1920000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32445116</v>
+      </c>
+      <c r="D10" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6000000</v>
+      </c>
       <c r="F10" t="n">
         <v>8505801</v>
       </c>
@@ -819,9 +951,21 @@
           <t>UCeYc_OjHs3QNxIjti2whKzg</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>warriors</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/warriors</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@warriors</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>https://twitter.com/warriors</t>
@@ -839,14 +983,18 @@
           <t>Houston Rockets</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>112000</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>112000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6328420</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1200000</v>
+      </c>
       <c r="F11" t="n">
         <v>3245884</v>
       </c>
@@ -856,9 +1004,21 @@
           <t>UCVD7l69MVGFq_wzQvbk9HbQ</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>houstonrockets</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/houstonrockets</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@houstonrockets</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>https://twitter.com/HoustonRockets</t>
@@ -876,14 +1036,18 @@
           <t>Indiana Pacers</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>41200</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>41200</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3127296</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>770100</v>
+      </c>
       <c r="F12" t="n">
         <v>1459421</v>
       </c>
@@ -893,9 +1057,21 @@
           <t>UCUQDCnAwU-35cOo8WCzg6zA</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>pacers</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/pacers</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pacers</t>
+        </is>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>https://twitter.com/Pacers</t>
@@ -913,14 +1089,18 @@
           <t>Los Angeles Clippers</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>189000</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>189000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>5298752</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2400000</v>
+      </c>
       <c r="F13" t="n">
         <v>2044684</v>
       </c>
@@ -930,9 +1110,21 @@
           <t>UCoK6pw3iIVF9WAWnQd3hj-g</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>laclippers</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/LAClippers</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@laclippers</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>https://twitter.com/LAClippers</t>
@@ -950,14 +1142,18 @@
           <t>Los Angeles Lakers</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>641000</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="B14" t="n">
+        <v>641000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>24193967</v>
+      </c>
+      <c r="D14" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2600000</v>
+      </c>
       <c r="F14" t="n">
         <v>12024665</v>
       </c>
@@ -967,9 +1163,21 @@
           <t>UC8CSt-oVqy8pUAoKSApTxQw</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>lakers</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/losangeleslakers</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@lakers</t>
+        </is>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>https://twitter.com/Lakers</t>
@@ -987,14 +1195,18 @@
           <t>Memphis Grizzlies</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>82900</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>82900</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2022905</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1500000</v>
+      </c>
       <c r="F15" t="n">
         <v>1633963</v>
       </c>
@@ -1004,9 +1216,21 @@
           <t>UCCK5EpWKYrAmILfaZThCV-Q</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>memgrizz</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/MemphisGrizzlies</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@memgrizz</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>https://twitter.com/memgrizz</t>
@@ -1024,14 +1248,18 @@
           <t>Miami Heat</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>144000</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>144000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6763446</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1400000</v>
+      </c>
       <c r="F16" t="n">
         <v>5063774</v>
       </c>
@@ -1041,9 +1269,21 @@
           <t>UC8bZbiKoPNRi3taABIaFeBw</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>miamiheat</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/MiamiHeat</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miamiheat</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>https://twitter.com/MiamiHEAT</t>
@@ -1061,14 +1301,18 @@
           <t>Milwaukee Bucks</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>445000</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>445000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5563750</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2000000</v>
+      </c>
       <c r="F17" t="n">
         <v>2039185</v>
       </c>
@@ -1078,9 +1322,21 @@
           <t>UCRZDEVva3Z8h_Q0VetTgDUA</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>bucks</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/milwaukeebucks</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@bucks</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>https://twitter.com/Bucks</t>
@@ -1098,14 +1354,18 @@
           <t>Minnesota Timberwolves</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>62800</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>62800</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3100320</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>598700</v>
+      </c>
       <c r="F18" t="n">
         <v>1265149</v>
       </c>
@@ -1115,9 +1375,21 @@
           <t>UCXWDN5NKVFgnPt25CMh98Cg</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>timberwolves</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/MNTimberwolves</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@timberwolves</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>https://twitter.com/Timberwolves</t>
@@ -1135,14 +1407,18 @@
           <t>Brooklyn Nets</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>122000</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>122000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4935446</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2300000</v>
+      </c>
       <c r="F19" t="n">
         <v>2041362</v>
       </c>
@@ -1152,9 +1428,21 @@
           <t>UCTenKHt0h3VjdMvRWP6Lbvw</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>brooklynnets</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/BrooklynNets</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@brooklynnets</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>https://twitter.com/brooklynnets</t>
@@ -1172,14 +1460,18 @@
           <t>New Orleans Pelicans</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>145000</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>145000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2819625</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>849700</v>
+      </c>
       <c r="F20" t="n">
         <v>1373975</v>
       </c>
@@ -1189,9 +1481,21 @@
           <t>UCHvG7tf62PwI04ZRfoptRSw</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>pelicansnba</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/PelicansNBA</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@pelicansnba</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>https://twitter.com/PelicansNBA</t>
@@ -1209,14 +1513,18 @@
           <t>New York Knicks</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>99500</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>99500</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4010313</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1600000</v>
+      </c>
       <c r="F21" t="n">
         <v>2474774</v>
       </c>
@@ -1226,9 +1534,21 @@
           <t>UC0hb8f0OXHEzDrJDUq-YVVw</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>nyknicks</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/NYKnicks</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@nyknicks</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>https://twitter.com/nyknicks</t>
@@ -1246,14 +1566,18 @@
           <t>Oklahoma City Thunder</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>114000</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="B22" t="n">
+        <v>114000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5933840</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6100000</v>
+      </c>
+      <c r="E22" t="n">
+        <v>636400</v>
+      </c>
       <c r="F22" t="n">
         <v>2809119</v>
       </c>
@@ -1263,9 +1587,21 @@
           <t>UCpXdQhy6kb5CTD8hKlmOL3w</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>okcthunder</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/okcthunder</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@okcthunder</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>https://twitter.com/okcthunder</t>
@@ -1283,14 +1619,18 @@
           <t>Orlando Magic</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>246000</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>246000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1888714</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1400000</v>
+      </c>
       <c r="F23" t="n">
         <v>1645247</v>
       </c>
@@ -1300,9 +1640,21 @@
           <t>UCxHFH-yfbhUrsWY4prPx3oQ</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>orlandomagic</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/OrlandoMagic</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@orlandomagic</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>https://twitter.com/OrlandoMagic</t>
@@ -1320,14 +1672,18 @@
           <t>Philadelphia 76ers</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>67700</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>67700</v>
+      </c>
+      <c r="C24" t="n">
+        <v>4336519</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>976200</v>
+      </c>
       <c r="F24" t="n">
         <v>2350900</v>
       </c>
@@ -1337,9 +1693,21 @@
           <t>UC5qJUyng_ezl0TVjVJFqtfQ</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>sixers</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Sixers</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sixers</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>https://twitter.com/sixers</t>
@@ -1357,14 +1725,18 @@
           <t>Phoenix Suns</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>70700</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>70700</v>
+      </c>
+      <c r="C25" t="n">
+        <v>3589644</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>749700</v>
+      </c>
       <c r="F25" t="n">
         <v>1775350</v>
       </c>
@@ -1374,9 +1746,21 @@
           <t>UCLxlWVVHz2a8SdCfxzVXzQw</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>suns</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/suns</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@phoenixsuns</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>https://twitter.com/Suns</t>
@@ -1394,14 +1778,18 @@
           <t>Portland Trail Blazers</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>106000</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>106000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2943250</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1000000</v>
+      </c>
       <c r="F26" t="n">
         <v>1559476</v>
       </c>
@@ -1411,9 +1799,21 @@
           <t>UCXk66yyzXo7-2M1BMqLhltQ</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>trailblazers</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/trailblazers</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@trailblazers</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>https://twitter.com/trailblazers</t>
@@ -1431,14 +1831,18 @@
           <t>Sacramento Kings</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>312000</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="B27" t="n">
+        <v>312000</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2233572</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7300000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>539500</v>
+      </c>
       <c r="F27" t="n">
         <v>1268176</v>
       </c>
@@ -1448,9 +1852,21 @@
           <t>UCSgFigczGdNMilV1K23JgUQ</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>sacramentokings</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/sacramentokings</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@sacramentokings</t>
+        </is>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>https://twitter.com/SacramentoKings</t>
@@ -1468,19 +1884,17 @@
           <t>San Antonio Spurs</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>99100</t>
-        </is>
+      <c r="B28" t="n">
+        <v>99100</v>
       </c>
       <c r="C28" t="n">
-        <v>5100000</v>
+        <v>5195934</v>
       </c>
       <c r="D28" t="n">
         <v>6700000</v>
       </c>
       <c r="E28" t="n">
-        <v>814800</v>
+        <v>815500</v>
       </c>
       <c r="F28" t="n">
         <v>3543919</v>
@@ -1493,12 +1907,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/spurs</t>
+          <t>spurs</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/Spurs/</t>
+          <t>https://www.facebook.com/Spurs</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1523,14 +1937,18 @@
           <t>Toronto Raptors</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>161000</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="B29" t="n">
+        <v>161000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4127995</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>607600</v>
+      </c>
       <c r="F29" t="n">
         <v>2588741</v>
       </c>
@@ -1540,9 +1958,21 @@
           <t>UCYBFE432C2AmNRDGEXE4uVg</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>raptors</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/TorontoRaptors</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@raptors</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>https://twitter.com/Raptors</t>
@@ -1560,14 +1990,18 @@
           <t>Utah Jazz</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>145000</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="B30" t="n">
+        <v>145000</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1383505</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3800000</v>
+      </c>
       <c r="F30" t="n">
         <v>1289833</v>
       </c>
@@ -1577,9 +2011,21 @@
           <t>UCv9iSdeI9IzWfV8yTDsMYWA</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>utahjazz</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/utahjazz</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@utahjazz</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>https://twitter.com/utahjazz</t>
@@ -1597,14 +2043,18 @@
           <t>Washington Wizards</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>56300</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>56300</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1543308</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>742600</v>
+      </c>
       <c r="F31" t="n">
         <v>1265691</v>
       </c>
@@ -1614,9 +2064,21 @@
           <t>UChvzoBPvORuNGtHTMzjUsIQ</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>washwizards</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/Wizards</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@wash_wizards</t>
+        </is>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>https://twitter.com/WashWizards</t>
